--- a/fpid/ZUTF-2025-08-24-数据质量分析报告.xlsx
+++ b/fpid/ZUTF-2025-08-24-数据质量分析报告.xlsx
@@ -1,15 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView windowHeight="17560"/>
   </bookViews>
   <sheets>
     <sheet name="数据质量分析报告" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">数据质量分析报告!$A$1:$H$53</definedName>
+  </definedNames>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -43,9 +59,15 @@
     <t>航空器识别标志</t>
   </si>
   <si>
+    <t>是</t>
+  </si>
+  <si>
     <t>GUFI</t>
   </si>
   <si>
+    <t>否</t>
+  </si>
+  <si>
     <t>UnitUFI</t>
   </si>
   <si>
@@ -76,6 +98,9 @@
     <t>目标撤轮挡时间</t>
   </si>
   <si>
+    <t>N/A</t>
+  </si>
+  <si>
     <t>开始保洁时间</t>
   </si>
   <si>
@@ -194,27 +219,24 @@
   </si>
   <si>
     <t>可变滑行时间</t>
-  </si>
-  <si>
-    <t>是</t>
-  </si>
-  <si>
-    <t>否</t>
-  </si>
-  <si>
-    <t>N/A</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -222,19 +244,356 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -257,9 +616,251 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -267,11 +868,63 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Currency" xfId="2" builtinId="4"/>
+    <cellStyle name="Percent" xfId="3" builtinId="5"/>
+    <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
+    <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
+    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
+    <cellStyle name="Note" xfId="8" builtinId="10"/>
+    <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
+    <cellStyle name="Title" xfId="10" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="11" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="12" builtinId="16"/>
+    <cellStyle name="Heading 2" xfId="13" builtinId="17"/>
+    <cellStyle name="Heading 3" xfId="14" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="15" builtinId="19"/>
+    <cellStyle name="Input" xfId="16" builtinId="20"/>
+    <cellStyle name="Output" xfId="17" builtinId="21"/>
+    <cellStyle name="Calculation" xfId="18" builtinId="22"/>
+    <cellStyle name="Check Cell" xfId="19" builtinId="23"/>
+    <cellStyle name="Linked Cell" xfId="20" builtinId="24"/>
+    <cellStyle name="Total" xfId="21" builtinId="25"/>
+    <cellStyle name="Good" xfId="22" builtinId="26"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="24" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - Accent1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - Accent1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - Accent1" xfId="28" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - Accent2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - Accent2" xfId="32" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - Accent3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
+    <cellStyle name="Accent4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - Accent4" xfId="40" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - Accent5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - Accent5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="44" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - Accent6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -554,17 +1207,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:H53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="13.7109375" customWidth="1"/>
     <col min="2" max="3" width="7.7109375" customWidth="1"/>
@@ -605,7 +1260,7 @@
         <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>60</v>
+        <v>9</v>
       </c>
       <c r="C2">
         <v>541</v>
@@ -626,12 +1281,12 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" hidden="1" spans="1:8">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>61</v>
+        <v>11</v>
       </c>
       <c r="C3">
         <v>541</v>
@@ -654,10 +1309,10 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>60</v>
+        <v>9</v>
       </c>
       <c r="C4">
         <v>541</v>
@@ -680,10 +1335,10 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>60</v>
+        <v>9</v>
       </c>
       <c r="C5">
         <v>541</v>
@@ -706,10 +1361,10 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>60</v>
+        <v>9</v>
       </c>
       <c r="C6">
         <v>541</v>
@@ -718,10 +1373,10 @@
         <v>525</v>
       </c>
       <c r="E6">
-        <v>97.04251386321626</v>
+        <v>97.0425138632163</v>
       </c>
       <c r="F6">
-        <v>98.85714285714286</v>
+        <v>98.8571428571429</v>
       </c>
       <c r="G6">
         <v>100</v>
@@ -730,12 +1385,12 @@
         <v>100</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" hidden="1" spans="1:8">
       <c r="A7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B7" t="s">
-        <v>61</v>
+        <v>11</v>
       </c>
       <c r="C7">
         <v>541</v>
@@ -744,7 +1399,7 @@
         <v>140</v>
       </c>
       <c r="E7">
-        <v>25.87800369685767</v>
+        <v>25.8780036968577</v>
       </c>
       <c r="F7">
         <v>90</v>
@@ -758,10 +1413,10 @@
     </row>
     <row r="8" spans="1:8">
       <c r="A8" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B8" t="s">
-        <v>60</v>
+        <v>9</v>
       </c>
       <c r="C8">
         <v>541</v>
@@ -773,7 +1428,7 @@
         <v>100</v>
       </c>
       <c r="F8">
-        <v>99.63031423290202</v>
+        <v>99.630314232902</v>
       </c>
       <c r="G8">
         <v>100</v>
@@ -784,10 +1439,10 @@
     </row>
     <row r="9" spans="1:8">
       <c r="A9" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B9" t="s">
-        <v>60</v>
+        <v>9</v>
       </c>
       <c r="C9">
         <v>541</v>
@@ -796,10 +1451,10 @@
         <v>513</v>
       </c>
       <c r="E9">
-        <v>94.82439926062847</v>
+        <v>94.8243992606285</v>
       </c>
       <c r="F9">
-        <v>99.61013645224172</v>
+        <v>99.6101364522417</v>
       </c>
       <c r="G9">
         <v>100</v>
@@ -810,10 +1465,10 @@
     </row>
     <row r="10" spans="1:8">
       <c r="A10" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B10" t="s">
-        <v>60</v>
+        <v>9</v>
       </c>
       <c r="C10">
         <v>541</v>
@@ -836,10 +1491,10 @@
     </row>
     <row r="11" spans="1:8">
       <c r="A11" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B11" t="s">
-        <v>60</v>
+        <v>9</v>
       </c>
       <c r="C11">
         <v>541</v>
@@ -860,12 +1515,12 @@
         <v>100</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" hidden="1" spans="1:8">
       <c r="A12" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B12" t="s">
-        <v>61</v>
+        <v>11</v>
       </c>
       <c r="C12">
         <v>541</v>
@@ -874,7 +1529,7 @@
         <v>311</v>
       </c>
       <c r="E12">
-        <v>57.48613678373382</v>
+        <v>57.4861367837338</v>
       </c>
       <c r="F12">
         <v>100</v>
@@ -888,10 +1543,10 @@
     </row>
     <row r="13" spans="1:8">
       <c r="A13" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>60</v>
+        <v>9</v>
       </c>
       <c r="C13">
         <v>541</v>
@@ -903,21 +1558,21 @@
         <v>0</v>
       </c>
       <c r="F13" t="s">
-        <v>62</v>
+        <v>22</v>
       </c>
       <c r="G13" t="s">
-        <v>62</v>
+        <v>22</v>
       </c>
       <c r="H13" t="s">
-        <v>62</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B14" t="s">
-        <v>60</v>
+        <v>9</v>
       </c>
       <c r="C14">
         <v>541</v>
@@ -926,24 +1581,24 @@
         <v>488</v>
       </c>
       <c r="E14">
-        <v>90.20332717190388</v>
+        <v>90.2033271719039</v>
       </c>
       <c r="F14">
-        <v>96.10655737704919</v>
+        <v>96.1065573770492</v>
       </c>
       <c r="G14">
-        <v>98.97540983606558</v>
+        <v>98.9754098360656</v>
       </c>
       <c r="H14">
-        <v>44.05737704918033</v>
+        <v>44.0573770491803</v>
       </c>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B15" t="s">
-        <v>60</v>
+        <v>9</v>
       </c>
       <c r="C15">
         <v>541</v>
@@ -952,24 +1607,24 @@
         <v>491</v>
       </c>
       <c r="E15">
-        <v>90.75785582255084</v>
+        <v>90.7578558225508</v>
       </c>
       <c r="F15">
-        <v>96.13034623217924</v>
+        <v>96.1303462321792</v>
       </c>
       <c r="G15">
-        <v>98.98167006109979</v>
+        <v>98.9816700610998</v>
       </c>
       <c r="H15">
-        <v>48.26883910386965</v>
+        <v>48.2688391038697</v>
       </c>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B16" t="s">
-        <v>60</v>
+        <v>9</v>
       </c>
       <c r="C16">
         <v>541</v>
@@ -978,24 +1633,24 @@
         <v>401</v>
       </c>
       <c r="E16">
-        <v>74.12199630314234</v>
+        <v>74.1219963031423</v>
       </c>
       <c r="F16">
-        <v>95.51122194513717</v>
+        <v>95.5112219451372</v>
       </c>
       <c r="G16">
-        <v>96.00997506234414</v>
+        <v>96.0099750623441</v>
       </c>
       <c r="H16">
-        <v>52.61845386533665</v>
+        <v>52.6184538653366</v>
       </c>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B17" t="s">
-        <v>60</v>
+        <v>9</v>
       </c>
       <c r="C17">
         <v>541</v>
@@ -1004,24 +1659,24 @@
         <v>405</v>
       </c>
       <c r="E17">
-        <v>74.86136783733826</v>
+        <v>74.8613678373383</v>
       </c>
       <c r="F17">
-        <v>95.55555555555556</v>
+        <v>95.5555555555556</v>
       </c>
       <c r="G17">
-        <v>97.03703703703704</v>
+        <v>97.037037037037</v>
       </c>
       <c r="H17">
-        <v>60.49382716049383</v>
+        <v>60.4938271604938</v>
       </c>
     </row>
     <row r="18" spans="1:8">
       <c r="A18" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B18" t="s">
-        <v>60</v>
+        <v>9</v>
       </c>
       <c r="C18">
         <v>541</v>
@@ -1033,21 +1688,21 @@
         <v>88.909426987061</v>
       </c>
       <c r="F18">
-        <v>96.04989604989605</v>
+        <v>96.049896049896</v>
       </c>
       <c r="G18">
-        <v>99.16839916839916</v>
+        <v>99.1683991683992</v>
       </c>
       <c r="H18">
-        <v>48.44074844074844</v>
+        <v>48.4407484407484</v>
       </c>
     </row>
     <row r="19" spans="1:8">
       <c r="A19" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B19" t="s">
-        <v>60</v>
+        <v>9</v>
       </c>
       <c r="C19">
         <v>541</v>
@@ -1059,21 +1714,21 @@
         <v>88.909426987061</v>
       </c>
       <c r="F19">
-        <v>96.04989604989605</v>
+        <v>96.049896049896</v>
       </c>
       <c r="G19">
-        <v>99.58419958419958</v>
+        <v>99.5841995841996</v>
       </c>
       <c r="H19">
-        <v>55.30145530145531</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
+        <v>55.3014553014553</v>
+      </c>
+    </row>
+    <row r="20" hidden="1" spans="1:8">
       <c r="A20" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B20" t="s">
-        <v>61</v>
+        <v>11</v>
       </c>
       <c r="C20">
         <v>541</v>
@@ -1082,7 +1737,7 @@
         <v>32</v>
       </c>
       <c r="E20">
-        <v>5.914972273567468</v>
+        <v>5.91497227356747</v>
       </c>
       <c r="F20">
         <v>100</v>
@@ -1094,12 +1749,12 @@
         <v>100</v>
       </c>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" hidden="1" spans="1:8">
       <c r="A21" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B21" t="s">
-        <v>61</v>
+        <v>11</v>
       </c>
       <c r="C21">
         <v>541</v>
@@ -1108,7 +1763,7 @@
         <v>33</v>
       </c>
       <c r="E21">
-        <v>6.099815157116451</v>
+        <v>6.09981515711645</v>
       </c>
       <c r="F21">
         <v>100</v>
@@ -1120,12 +1775,12 @@
         <v>100</v>
       </c>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" hidden="1" spans="1:8">
       <c r="A22" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B22" t="s">
-        <v>61</v>
+        <v>11</v>
       </c>
       <c r="C22">
         <v>541</v>
@@ -1134,10 +1789,10 @@
         <v>46</v>
       </c>
       <c r="E22">
-        <v>8.502772643253234</v>
+        <v>8.50277264325323</v>
       </c>
       <c r="F22">
-        <v>95.65217391304348</v>
+        <v>95.6521739130435</v>
       </c>
       <c r="G22">
         <v>100</v>
@@ -1146,12 +1801,12 @@
         <v>100</v>
       </c>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" hidden="1" spans="1:8">
       <c r="A23" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B23" t="s">
-        <v>61</v>
+        <v>11</v>
       </c>
       <c r="C23">
         <v>541</v>
@@ -1160,10 +1815,10 @@
         <v>51</v>
       </c>
       <c r="E23">
-        <v>9.426987060998151</v>
+        <v>9.42698706099815</v>
       </c>
       <c r="F23">
-        <v>96.07843137254902</v>
+        <v>96.078431372549</v>
       </c>
       <c r="G23">
         <v>100</v>
@@ -1174,10 +1829,10 @@
     </row>
     <row r="24" spans="1:8">
       <c r="A24" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B24" t="s">
-        <v>60</v>
+        <v>9</v>
       </c>
       <c r="C24">
         <v>541</v>
@@ -1186,7 +1841,7 @@
         <v>1</v>
       </c>
       <c r="E24">
-        <v>0.1848428835489834</v>
+        <v>0.184842883548983</v>
       </c>
       <c r="F24">
         <v>100</v>
@@ -1200,10 +1855,10 @@
     </row>
     <row r="25" spans="1:8">
       <c r="A25" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B25" t="s">
-        <v>60</v>
+        <v>9</v>
       </c>
       <c r="C25">
         <v>541</v>
@@ -1212,7 +1867,7 @@
         <v>1</v>
       </c>
       <c r="E25">
-        <v>0.1848428835489834</v>
+        <v>0.184842883548983</v>
       </c>
       <c r="F25">
         <v>100</v>
@@ -1224,12 +1879,12 @@
         <v>100</v>
       </c>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" hidden="1" spans="1:8">
       <c r="A26" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B26" t="s">
-        <v>61</v>
+        <v>11</v>
       </c>
       <c r="C26">
         <v>541</v>
@@ -1238,7 +1893,7 @@
         <v>19</v>
       </c>
       <c r="E26">
-        <v>3.512014787430684</v>
+        <v>3.51201478743068</v>
       </c>
       <c r="F26">
         <v>100</v>
@@ -1250,12 +1905,12 @@
         <v>100</v>
       </c>
     </row>
-    <row r="27" spans="1:8">
+    <row r="27" hidden="1" spans="1:8">
       <c r="A27" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B27" t="s">
-        <v>61</v>
+        <v>11</v>
       </c>
       <c r="C27">
         <v>541</v>
@@ -1264,7 +1919,7 @@
         <v>19</v>
       </c>
       <c r="E27">
-        <v>3.512014787430684</v>
+        <v>3.51201478743068</v>
       </c>
       <c r="F27">
         <v>100</v>
@@ -1276,12 +1931,12 @@
         <v>100</v>
       </c>
     </row>
-    <row r="28" spans="1:8">
+    <row r="28" hidden="1" spans="1:8">
       <c r="A28" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B28" t="s">
-        <v>61</v>
+        <v>11</v>
       </c>
       <c r="C28">
         <v>541</v>
@@ -1290,7 +1945,7 @@
         <v>7</v>
       </c>
       <c r="E28">
-        <v>1.293900184842884</v>
+        <v>1.29390018484288</v>
       </c>
       <c r="F28">
         <v>100</v>
@@ -1302,12 +1957,12 @@
         <v>100</v>
       </c>
     </row>
-    <row r="29" spans="1:8">
+    <row r="29" hidden="1" spans="1:8">
       <c r="A29" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B29" t="s">
-        <v>61</v>
+        <v>11</v>
       </c>
       <c r="C29">
         <v>541</v>
@@ -1316,7 +1971,7 @@
         <v>75</v>
       </c>
       <c r="E29">
-        <v>13.86321626617375</v>
+        <v>13.8632162661737</v>
       </c>
       <c r="F29">
         <v>100</v>
@@ -1328,12 +1983,12 @@
         <v>100</v>
       </c>
     </row>
-    <row r="30" spans="1:8">
+    <row r="30" hidden="1" spans="1:8">
       <c r="A30" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B30" t="s">
-        <v>61</v>
+        <v>11</v>
       </c>
       <c r="C30">
         <v>541</v>
@@ -1342,7 +1997,7 @@
         <v>81</v>
       </c>
       <c r="E30">
-        <v>14.97227356746765</v>
+        <v>14.9722735674676</v>
       </c>
       <c r="F30">
         <v>100</v>
@@ -1356,10 +2011,10 @@
     </row>
     <row r="31" spans="1:8">
       <c r="A31" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B31" t="s">
-        <v>60</v>
+        <v>9</v>
       </c>
       <c r="C31">
         <v>541</v>
@@ -1368,24 +2023,24 @@
         <v>502</v>
       </c>
       <c r="E31">
-        <v>92.79112754158965</v>
+        <v>92.7911275415896</v>
       </c>
       <c r="F31">
-        <v>96.21513944223108</v>
+        <v>96.2151394422311</v>
       </c>
       <c r="G31">
-        <v>98.00796812749005</v>
+        <v>98.00796812749</v>
       </c>
       <c r="H31">
-        <v>61.15537848605578</v>
+        <v>61.1553784860558</v>
       </c>
     </row>
     <row r="32" spans="1:8">
       <c r="A32" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B32" t="s">
-        <v>60</v>
+        <v>9</v>
       </c>
       <c r="C32">
         <v>541</v>
@@ -1394,13 +2049,13 @@
         <v>501</v>
       </c>
       <c r="E32">
-        <v>92.60628465804066</v>
+        <v>92.6062846580407</v>
       </c>
       <c r="F32">
-        <v>96.20758483033931</v>
+        <v>96.2075848303393</v>
       </c>
       <c r="G32">
-        <v>97.60479041916167</v>
+        <v>97.6047904191617</v>
       </c>
       <c r="H32">
         <v>62.6746506986028</v>
@@ -1408,10 +2063,10 @@
     </row>
     <row r="33" spans="1:8">
       <c r="A33" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B33" t="s">
-        <v>60</v>
+        <v>9</v>
       </c>
       <c r="C33">
         <v>541</v>
@@ -1420,24 +2075,24 @@
         <v>65</v>
       </c>
       <c r="E33">
-        <v>12.01478743068392</v>
+        <v>12.0147874306839</v>
       </c>
       <c r="F33">
-        <v>96.92307692307692</v>
+        <v>96.9230769230769</v>
       </c>
       <c r="G33">
-        <v>98.46153846153847</v>
+        <v>98.4615384615385</v>
       </c>
       <c r="H33">
-        <v>70.76923076923077</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
+        <v>70.7692307692308</v>
+      </c>
+    </row>
+    <row r="34" hidden="1" spans="1:8">
       <c r="A34" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B34" t="s">
-        <v>61</v>
+        <v>11</v>
       </c>
       <c r="C34">
         <v>541</v>
@@ -1446,7 +2101,7 @@
         <v>26</v>
       </c>
       <c r="E34">
-        <v>4.805914972273567</v>
+        <v>4.80591497227357</v>
       </c>
       <c r="F34">
         <v>100</v>
@@ -1458,12 +2113,12 @@
         <v>100</v>
       </c>
     </row>
-    <row r="35" spans="1:8">
+    <row r="35" hidden="1" spans="1:8">
       <c r="A35" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B35" t="s">
-        <v>61</v>
+        <v>11</v>
       </c>
       <c r="C35">
         <v>541</v>
@@ -1472,7 +2127,7 @@
         <v>113</v>
       </c>
       <c r="E35">
-        <v>20.88724584103512</v>
+        <v>20.8872458410351</v>
       </c>
       <c r="F35">
         <v>100</v>
@@ -1486,10 +2141,10 @@
     </row>
     <row r="36" spans="1:8">
       <c r="A36" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B36" t="s">
-        <v>60</v>
+        <v>9</v>
       </c>
       <c r="C36">
         <v>541</v>
@@ -1498,24 +2153,24 @@
         <v>416</v>
       </c>
       <c r="E36">
-        <v>76.89463955637707</v>
+        <v>76.8946395563771</v>
       </c>
       <c r="F36">
-        <v>97.59615384615384</v>
+        <v>97.5961538461538</v>
       </c>
       <c r="G36">
-        <v>98.31730769230769</v>
+        <v>98.3173076923077</v>
       </c>
       <c r="H36">
-        <v>65.38461538461539</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
+        <v>65.3846153846154</v>
+      </c>
+    </row>
+    <row r="37" hidden="1" spans="1:8">
       <c r="A37" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B37" t="s">
-        <v>61</v>
+        <v>11</v>
       </c>
       <c r="C37">
         <v>541</v>
@@ -1524,7 +2179,7 @@
         <v>50</v>
       </c>
       <c r="E37">
-        <v>9.242144177449168</v>
+        <v>9.24214417744917</v>
       </c>
       <c r="F37">
         <v>80</v>
@@ -1538,10 +2193,10 @@
     </row>
     <row r="38" spans="1:8">
       <c r="A38" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B38" t="s">
-        <v>60</v>
+        <v>9</v>
       </c>
       <c r="C38">
         <v>541</v>
@@ -1550,10 +2205,10 @@
         <v>19</v>
       </c>
       <c r="E38">
-        <v>3.512014787430684</v>
+        <v>3.51201478743068</v>
       </c>
       <c r="F38">
-        <v>52.63157894736842</v>
+        <v>52.6315789473684</v>
       </c>
       <c r="G38">
         <v>100</v>
@@ -1564,10 +2219,10 @@
     </row>
     <row r="39" spans="1:8">
       <c r="A39" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B39" t="s">
-        <v>60</v>
+        <v>9</v>
       </c>
       <c r="C39">
         <v>541</v>
@@ -1576,10 +2231,10 @@
         <v>396</v>
       </c>
       <c r="E39">
-        <v>73.19778188539742</v>
+        <v>73.1977818853974</v>
       </c>
       <c r="F39">
-        <v>98.23232323232324</v>
+        <v>98.2323232323232</v>
       </c>
       <c r="G39">
         <v>100</v>
@@ -1590,10 +2245,10 @@
     </row>
     <row r="40" spans="1:8">
       <c r="A40" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B40" t="s">
-        <v>60</v>
+        <v>9</v>
       </c>
       <c r="C40">
         <v>541</v>
@@ -1602,24 +2257,24 @@
         <v>488</v>
       </c>
       <c r="E40">
-        <v>90.20332717190388</v>
+        <v>90.2033271719039</v>
       </c>
       <c r="F40">
-        <v>98.77049180327869</v>
+        <v>98.7704918032787</v>
       </c>
       <c r="G40">
         <v>100</v>
       </c>
       <c r="H40">
-        <v>58.81147540983606</v>
+        <v>58.8114754098361</v>
       </c>
     </row>
     <row r="41" spans="1:8">
       <c r="A41" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B41" t="s">
-        <v>60</v>
+        <v>9</v>
       </c>
       <c r="C41">
         <v>541</v>
@@ -1628,24 +2283,24 @@
         <v>501</v>
       </c>
       <c r="E41">
-        <v>92.60628465804066</v>
+        <v>92.6062846580407</v>
       </c>
       <c r="F41">
-        <v>94.21157684630739</v>
+        <v>94.2115768463074</v>
       </c>
       <c r="G41">
-        <v>94.21157684630739</v>
+        <v>94.2115768463074</v>
       </c>
       <c r="H41">
-        <v>70.05988023952095</v>
+        <v>70.059880239521</v>
       </c>
     </row>
     <row r="42" spans="1:8">
       <c r="A42" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B42" t="s">
-        <v>60</v>
+        <v>9</v>
       </c>
       <c r="C42">
         <v>541</v>
@@ -1657,21 +2312,21 @@
         <v>0</v>
       </c>
       <c r="F42" t="s">
-        <v>62</v>
+        <v>22</v>
       </c>
       <c r="G42" t="s">
-        <v>62</v>
+        <v>22</v>
       </c>
       <c r="H42" t="s">
-        <v>62</v>
+        <v>22</v>
       </c>
     </row>
     <row r="43" spans="1:8">
       <c r="A43" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B43" t="s">
-        <v>60</v>
+        <v>9</v>
       </c>
       <c r="C43">
         <v>541</v>
@@ -1683,21 +2338,21 @@
         <v>0</v>
       </c>
       <c r="F43" t="s">
-        <v>62</v>
+        <v>22</v>
       </c>
       <c r="G43" t="s">
-        <v>62</v>
+        <v>22</v>
       </c>
       <c r="H43" t="s">
-        <v>62</v>
+        <v>22</v>
       </c>
     </row>
     <row r="44" spans="1:8">
       <c r="A44" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B44" t="s">
-        <v>60</v>
+        <v>9</v>
       </c>
       <c r="C44">
         <v>541</v>
@@ -1709,21 +2364,21 @@
         <v>0</v>
       </c>
       <c r="F44" t="s">
-        <v>62</v>
+        <v>22</v>
       </c>
       <c r="G44" t="s">
-        <v>62</v>
+        <v>22</v>
       </c>
       <c r="H44" t="s">
-        <v>62</v>
+        <v>22</v>
       </c>
     </row>
     <row r="45" spans="1:8">
       <c r="A45" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B45" t="s">
-        <v>60</v>
+        <v>9</v>
       </c>
       <c r="C45">
         <v>541</v>
@@ -1735,21 +2390,21 @@
         <v>0</v>
       </c>
       <c r="F45" t="s">
-        <v>62</v>
+        <v>22</v>
       </c>
       <c r="G45" t="s">
-        <v>62</v>
+        <v>22</v>
       </c>
       <c r="H45" t="s">
-        <v>62</v>
+        <v>22</v>
       </c>
     </row>
     <row r="46" spans="1:8">
       <c r="A46" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B46" t="s">
-        <v>60</v>
+        <v>9</v>
       </c>
       <c r="C46">
         <v>541</v>
@@ -1761,21 +2416,21 @@
         <v>0</v>
       </c>
       <c r="F46" t="s">
-        <v>62</v>
+        <v>22</v>
       </c>
       <c r="G46" t="s">
-        <v>62</v>
+        <v>22</v>
       </c>
       <c r="H46" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="47" hidden="1" spans="1:8">
       <c r="A47" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B47" t="s">
-        <v>61</v>
+        <v>11</v>
       </c>
       <c r="C47">
         <v>541</v>
@@ -1784,7 +2439,7 @@
         <v>219</v>
       </c>
       <c r="E47">
-        <v>40.48059149722736</v>
+        <v>40.4805914972274</v>
       </c>
       <c r="F47">
         <v>100</v>
@@ -1796,12 +2451,12 @@
         <v>59.3607305936073</v>
       </c>
     </row>
-    <row r="48" spans="1:8">
+    <row r="48" hidden="1" spans="1:8">
       <c r="A48" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B48" t="s">
-        <v>61</v>
+        <v>11</v>
       </c>
       <c r="C48">
         <v>541</v>
@@ -1810,7 +2465,7 @@
         <v>203</v>
       </c>
       <c r="E48">
-        <v>37.52310536044362</v>
+        <v>37.5231053604436</v>
       </c>
       <c r="F48">
         <v>100</v>
@@ -1819,15 +2474,15 @@
         <v>100</v>
       </c>
       <c r="H48">
-        <v>90.14778325123153</v>
+        <v>90.1477832512315</v>
       </c>
     </row>
     <row r="49" spans="1:8">
       <c r="A49" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B49" t="s">
-        <v>60</v>
+        <v>9</v>
       </c>
       <c r="C49">
         <v>541</v>
@@ -1839,21 +2494,21 @@
         <v>0</v>
       </c>
       <c r="F49" t="s">
-        <v>62</v>
+        <v>22</v>
       </c>
       <c r="G49" t="s">
-        <v>62</v>
+        <v>22</v>
       </c>
       <c r="H49" t="s">
-        <v>62</v>
+        <v>22</v>
       </c>
     </row>
     <row r="50" spans="1:8">
       <c r="A50" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B50" t="s">
-        <v>60</v>
+        <v>9</v>
       </c>
       <c r="C50">
         <v>541</v>
@@ -1865,21 +2520,21 @@
         <v>0</v>
       </c>
       <c r="F50" t="s">
-        <v>62</v>
+        <v>22</v>
       </c>
       <c r="G50" t="s">
-        <v>62</v>
+        <v>22</v>
       </c>
       <c r="H50" t="s">
-        <v>62</v>
+        <v>22</v>
       </c>
     </row>
     <row r="51" spans="1:8">
       <c r="A51" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B51" t="s">
-        <v>60</v>
+        <v>9</v>
       </c>
       <c r="C51">
         <v>541</v>
@@ -1891,21 +2546,21 @@
         <v>0</v>
       </c>
       <c r="F51" t="s">
-        <v>62</v>
+        <v>22</v>
       </c>
       <c r="G51" t="s">
-        <v>62</v>
+        <v>22</v>
       </c>
       <c r="H51" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="52" hidden="1" spans="1:8">
       <c r="A52" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B52" t="s">
-        <v>61</v>
+        <v>11</v>
       </c>
       <c r="C52">
         <v>541</v>
@@ -1917,21 +2572,21 @@
         <v>0</v>
       </c>
       <c r="F52" t="s">
+        <v>22</v>
+      </c>
+      <c r="G52" t="s">
+        <v>22</v>
+      </c>
+      <c r="H52" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="53" hidden="1" spans="1:8">
+      <c r="A53" t="s">
         <v>62</v>
       </c>
-      <c r="G52" t="s">
-        <v>62</v>
-      </c>
-      <c r="H52" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8">
-      <c r="A53" t="s">
-        <v>59</v>
-      </c>
       <c r="B53" t="s">
-        <v>61</v>
+        <v>11</v>
       </c>
       <c r="C53">
         <v>541</v>
@@ -1940,10 +2595,10 @@
         <v>51</v>
       </c>
       <c r="E53">
-        <v>9.426987060998151</v>
+        <v>9.42698706099815</v>
       </c>
       <c r="F53">
-        <v>66.66666666666666</v>
+        <v>66.6666666666667</v>
       </c>
       <c r="G53">
         <v>100</v>
@@ -1953,6 +2608,15 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:H53">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="是"/>
+      </filters>
+    </filterColumn>
+    <extLst/>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>